--- a/test/run_log_results.xlsx
+++ b/test/run_log_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Simulation Time (ms)</t>
+          <t>Simulation Time (s)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Total Run Time (ms)</t>
+          <t>Total Run Time (s)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Time Per Iteration (ms)</t>
+          <t>Time Per Iteration (s)</t>
         </is>
       </c>
     </row>
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="D2" t="n">
-        <v>1067008</v>
+        <v>263661</v>
       </c>
       <c r="E2" t="n">
-        <v>19.397</v>
+        <v>16.979</v>
       </c>
       <c r="F2" t="n">
-        <v>13572.073</v>
+        <v>935.79</v>
       </c>
       <c r="G2" t="n">
-        <v>678.60365</v>
+        <v>46.7895</v>
       </c>
     </row>
     <row r="3">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>271360</v>
+        <v>69577</v>
       </c>
       <c r="E3" t="n">
-        <v>5.131</v>
+        <v>5.404</v>
       </c>
       <c r="F3" t="n">
-        <v>926.442</v>
+        <v>78.227</v>
       </c>
       <c r="G3" t="n">
-        <v>46.3221</v>
+        <v>3.91135</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
-        <v>70144</v>
+        <v>19277</v>
       </c>
       <c r="E4" t="n">
-        <v>1.372</v>
+        <v>1.937</v>
       </c>
       <c r="F4" t="n">
-        <v>64.705</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>3.23525</v>
+        <v>0.47105</v>
       </c>
     </row>
     <row r="5">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D5" t="n">
-        <v>18688</v>
+        <v>5811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.452</v>
+        <v>1.174</v>
       </c>
       <c r="F5" t="n">
-        <v>5.669</v>
+        <v>2.249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.28345</v>
+        <v>0.11245</v>
       </c>
     </row>
     <row r="6">
@@ -580,19 +580,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>5248</v>
+        <v>2000</v>
       </c>
       <c r="E6" t="n">
-        <v>0.135</v>
+        <v>0.553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.68</v>
+        <v>0.725</v>
       </c>
       <c r="G6" t="n">
-        <v>0.034</v>
+        <v>0.03625</v>
       </c>
     </row>
     <row r="7">
@@ -601,23 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="D7" t="n">
-        <v>1600</v>
+        <v>995095</v>
       </c>
       <c r="E7" t="n">
-        <v>0.051</v>
+        <v>25.01</v>
       </c>
       <c r="F7" t="n">
-        <v>0.137</v>
+        <v>4674.814</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006849999999999999</v>
+        <v>233.7407</v>
       </c>
     </row>
     <row r="8">
@@ -630,19 +630,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="D8" t="n">
-        <v>4190208</v>
+        <v>248267</v>
       </c>
       <c r="E8" t="n">
-        <v>38.042</v>
+        <v>6.165</v>
       </c>
       <c r="F8" t="n">
-        <v>77380.317</v>
+        <v>302.188</v>
       </c>
       <c r="G8" t="n">
-        <v>3869.01585</v>
+        <v>15.1094</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +655,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="D9" t="n">
-        <v>1046528</v>
+        <v>61815</v>
       </c>
       <c r="E9" t="n">
-        <v>9.581</v>
+        <v>1.488</v>
       </c>
       <c r="F9" t="n">
-        <v>2846.399</v>
+        <v>21.472</v>
       </c>
       <c r="G9" t="n">
-        <v>142.31995</v>
+        <v>1.0736</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +680,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D10" t="n">
-        <v>261120</v>
+        <v>15331</v>
       </c>
       <c r="E10" t="n">
-        <v>2.306</v>
+        <v>0.663</v>
       </c>
       <c r="F10" t="n">
-        <v>205.498</v>
+        <v>2.672</v>
       </c>
       <c r="G10" t="n">
-        <v>10.2749</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="11">
@@ -705,74 +705,74 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>65024</v>
+        <v>3771</v>
       </c>
       <c r="E11" t="n">
-        <v>0.575</v>
+        <v>0.129</v>
       </c>
       <c r="F11" t="n">
-        <v>11.745</v>
+        <v>0.31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.58725</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="D12" t="n">
-        <v>16128</v>
+        <v>263661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.176</v>
+        <v>13.44</v>
       </c>
       <c r="F12" t="n">
-        <v>1.011</v>
+        <v>705.568</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05055</v>
+        <v>35.2784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="D13" t="n">
-        <v>3968</v>
+        <v>69577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.036</v>
+        <v>3.757</v>
       </c>
       <c r="F13" t="n">
-        <v>0.159</v>
+        <v>63.437</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00795</v>
+        <v>3.17185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -780,24 +780,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2048</v>
+        <v>256</v>
       </c>
       <c r="D14" t="n">
-        <v>1067008</v>
+        <v>19277</v>
       </c>
       <c r="E14" t="n">
-        <v>6.48</v>
+        <v>1.486</v>
       </c>
       <c r="F14" t="n">
-        <v>9084.133</v>
+        <v>8.628</v>
       </c>
       <c r="G14" t="n">
-        <v>454.20665</v>
+        <v>0.4314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -805,24 +805,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="D15" t="n">
-        <v>271360</v>
+        <v>5811</v>
       </c>
       <c r="E15" t="n">
-        <v>1.655</v>
+        <v>0.651</v>
       </c>
       <c r="F15" t="n">
-        <v>625.181</v>
+        <v>1.706</v>
       </c>
       <c r="G15" t="n">
-        <v>31.25905</v>
+        <v>0.0853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -830,99 +830,99 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="D16" t="n">
-        <v>70144</v>
+        <v>2000</v>
       </c>
       <c r="E16" t="n">
-        <v>0.401</v>
+        <v>0.314</v>
       </c>
       <c r="F16" t="n">
-        <v>45.582</v>
+        <v>0.512</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2791</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="D17" t="n">
-        <v>18688</v>
+        <v>995095</v>
       </c>
       <c r="E17" t="n">
-        <v>0.132</v>
+        <v>21.51</v>
       </c>
       <c r="F17" t="n">
-        <v>3.998</v>
+        <v>2393.638</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1999</v>
+        <v>119.6819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D18" t="n">
-        <v>5248</v>
+        <v>248267</v>
       </c>
       <c r="E18" t="n">
-        <v>0.056</v>
+        <v>4.15</v>
       </c>
       <c r="F18" t="n">
-        <v>0.488</v>
+        <v>159.279</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0244</v>
+        <v>7.96395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D19" t="n">
-        <v>1600</v>
+        <v>61815</v>
       </c>
       <c r="E19" t="n">
-        <v>0.022</v>
+        <v>1.17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.096</v>
+        <v>12.982</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0048</v>
+        <v>0.6491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -930,24 +930,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2048</v>
+        <v>128</v>
       </c>
       <c r="D20" t="n">
-        <v>4190208</v>
+        <v>15331</v>
       </c>
       <c r="E20" t="n">
-        <v>12.903</v>
+        <v>0.308</v>
       </c>
       <c r="F20" t="n">
-        <v>20796.871</v>
+        <v>1.525</v>
       </c>
       <c r="G20" t="n">
-        <v>1039.84355</v>
+        <v>0.07625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -955,124 +955,124 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="D21" t="n">
-        <v>1046528</v>
+        <v>3771</v>
       </c>
       <c r="E21" t="n">
-        <v>3.379</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>792.8819999999999</v>
+        <v>0.237</v>
       </c>
       <c r="G21" t="n">
-        <v>39.6441</v>
+        <v>0.01185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D22" t="n">
-        <v>261120</v>
+        <v>263661</v>
       </c>
       <c r="E22" t="n">
-        <v>0.747</v>
+        <v>12.895</v>
       </c>
       <c r="F22" t="n">
-        <v>54.906</v>
+        <v>618.375</v>
       </c>
       <c r="G22" t="n">
-        <v>2.7453</v>
+        <v>30.91875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D23" t="n">
-        <v>65024</v>
+        <v>69577</v>
       </c>
       <c r="E23" t="n">
-        <v>0.178</v>
+        <v>2.284</v>
       </c>
       <c r="F23" t="n">
-        <v>3.665</v>
+        <v>56.796</v>
       </c>
       <c r="G23" t="n">
-        <v>0.18325</v>
+        <v>2.8398</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D24" t="n">
-        <v>16128</v>
+        <v>19277</v>
       </c>
       <c r="E24" t="n">
-        <v>0.053</v>
+        <v>0.849</v>
       </c>
       <c r="F24" t="n">
-        <v>0.386</v>
+        <v>7.076</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0193</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D25" t="n">
-        <v>3968</v>
+        <v>5811</v>
       </c>
       <c r="E25" t="n">
-        <v>0.021</v>
+        <v>0.382</v>
       </c>
       <c r="F25" t="n">
-        <v>0.091</v>
+        <v>1.337</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00455</v>
+        <v>0.06684999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1080,274 +1080,274 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2048</v>
+        <v>64</v>
       </c>
       <c r="D26" t="n">
-        <v>1067008</v>
+        <v>2000</v>
       </c>
       <c r="E26" t="n">
-        <v>5.034</v>
+        <v>0.18</v>
       </c>
       <c r="F26" t="n">
-        <v>6562.586</v>
+        <v>0.35</v>
       </c>
       <c r="G26" t="n">
-        <v>328.1293</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>1024</v>
       </c>
       <c r="D27" t="n">
-        <v>271360</v>
+        <v>995095</v>
       </c>
       <c r="E27" t="n">
-        <v>1.056</v>
+        <v>13.134</v>
       </c>
       <c r="F27" t="n">
-        <v>461.3</v>
+        <v>1317.06</v>
       </c>
       <c r="G27" t="n">
-        <v>23.065</v>
+        <v>65.85299999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>512</v>
       </c>
       <c r="D28" t="n">
-        <v>70144</v>
+        <v>248267</v>
       </c>
       <c r="E28" t="n">
-        <v>0.314</v>
+        <v>3.128</v>
       </c>
       <c r="F28" t="n">
-        <v>35.232</v>
+        <v>91.59699999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>1.7616</v>
+        <v>4.57985</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>256</v>
       </c>
       <c r="D29" t="n">
-        <v>18688</v>
+        <v>61815</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>3.51</v>
+        <v>8.295</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1755</v>
+        <v>0.41475</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>128</v>
       </c>
       <c r="D30" t="n">
-        <v>5248</v>
+        <v>15331</v>
       </c>
       <c r="E30" t="n">
-        <v>0.051</v>
+        <v>0.195</v>
       </c>
       <c r="F30" t="n">
-        <v>0.53</v>
+        <v>1.009</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0265</v>
+        <v>0.05045</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>1600</v>
+        <v>3771</v>
       </c>
       <c r="E31" t="n">
-        <v>0.011</v>
+        <v>0.057</v>
       </c>
       <c r="F31" t="n">
-        <v>0.093</v>
+        <v>0.182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00465</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="D32" t="n">
-        <v>4190208</v>
+        <v>263661</v>
       </c>
       <c r="E32" t="n">
-        <v>9.346</v>
+        <v>7.876</v>
       </c>
       <c r="F32" t="n">
-        <v>11271.815</v>
+        <v>557.946</v>
       </c>
       <c r="G32" t="n">
-        <v>563.59075</v>
+        <v>27.8973</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="D33" t="n">
-        <v>1046528</v>
+        <v>69577</v>
       </c>
       <c r="E33" t="n">
-        <v>2.647</v>
+        <v>1.398</v>
       </c>
       <c r="F33" t="n">
-        <v>479.038</v>
+        <v>51.676</v>
       </c>
       <c r="G33" t="n">
-        <v>23.9519</v>
+        <v>2.5838</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D34" t="n">
-        <v>261120</v>
+        <v>19277</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="F34" t="n">
-        <v>33.38</v>
+        <v>6.096</v>
       </c>
       <c r="G34" t="n">
-        <v>1.669</v>
+        <v>0.3048</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D35" t="n">
-        <v>65024</v>
+        <v>5811</v>
       </c>
       <c r="E35" t="n">
-        <v>0.139</v>
+        <v>0.229</v>
       </c>
       <c r="F35" t="n">
-        <v>2.386</v>
+        <v>1.153</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1193</v>
+        <v>0.05765</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D36" t="n">
-        <v>16128</v>
+        <v>2000</v>
       </c>
       <c r="E36" t="n">
-        <v>0.046</v>
+        <v>0.112</v>
       </c>
       <c r="F36" t="n">
-        <v>0.355</v>
+        <v>0.248</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01775</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1355,124 +1355,124 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="D37" t="n">
-        <v>3968</v>
+        <v>995095</v>
       </c>
       <c r="E37" t="n">
-        <v>0.014</v>
+        <v>11.254</v>
       </c>
       <c r="F37" t="n">
-        <v>0.057</v>
+        <v>728.205</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00285</v>
+        <v>36.41025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="D38" t="n">
-        <v>1067008</v>
+        <v>248267</v>
       </c>
       <c r="E38" t="n">
-        <v>4.239</v>
+        <v>3.41</v>
       </c>
       <c r="F38" t="n">
-        <v>5758.418</v>
+        <v>55.636</v>
       </c>
       <c r="G38" t="n">
-        <v>287.9209</v>
+        <v>2.7818</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="D39" t="n">
-        <v>271360</v>
+        <v>61815</v>
       </c>
       <c r="E39" t="n">
-        <v>0.886</v>
+        <v>0.447</v>
       </c>
       <c r="F39" t="n">
-        <v>414.429</v>
+        <v>5.979</v>
       </c>
       <c r="G39" t="n">
-        <v>20.72145</v>
+        <v>0.29895</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D40" t="n">
-        <v>70144</v>
+        <v>15331</v>
       </c>
       <c r="E40" t="n">
-        <v>0.266</v>
+        <v>0.127</v>
       </c>
       <c r="F40" t="n">
-        <v>32.342</v>
+        <v>0.722</v>
       </c>
       <c r="G40" t="n">
-        <v>1.6171</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D41" t="n">
-        <v>18688</v>
+        <v>3771</v>
       </c>
       <c r="E41" t="n">
-        <v>0.081</v>
+        <v>0.034</v>
       </c>
       <c r="F41" t="n">
-        <v>3.144</v>
+        <v>0.138</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1572</v>
+        <v>0.006900000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1480,24 +1480,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="D42" t="n">
-        <v>5248</v>
+        <v>263661</v>
       </c>
       <c r="E42" t="n">
-        <v>0.039</v>
+        <v>4.919</v>
       </c>
       <c r="F42" t="n">
-        <v>0.551</v>
+        <v>511.861</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02755</v>
+        <v>25.59305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1505,99 +1505,99 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="D43" t="n">
-        <v>1600</v>
+        <v>69577</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008</v>
+        <v>1.055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.075</v>
+        <v>48.445</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00375</v>
+        <v>2.42225</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2048</v>
+        <v>256</v>
       </c>
       <c r="D44" t="n">
-        <v>4190208</v>
+        <v>19277</v>
       </c>
       <c r="E44" t="n">
-        <v>8.387</v>
+        <v>0.354</v>
       </c>
       <c r="F44" t="n">
-        <v>8951.457</v>
+        <v>5.933</v>
       </c>
       <c r="G44" t="n">
-        <v>447.57285</v>
+        <v>0.29665</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="D45" t="n">
-        <v>1046528</v>
+        <v>5811</v>
       </c>
       <c r="E45" t="n">
-        <v>2.359</v>
+        <v>0.15</v>
       </c>
       <c r="F45" t="n">
-        <v>410.208</v>
+        <v>1.005</v>
       </c>
       <c r="G45" t="n">
-        <v>20.5104</v>
+        <v>0.05025</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="D46" t="n">
-        <v>261120</v>
+        <v>2000</v>
       </c>
       <c r="E46" t="n">
-        <v>0.495</v>
+        <v>0.08</v>
       </c>
       <c r="F46" t="n">
-        <v>28.67</v>
+        <v>0.207</v>
       </c>
       <c r="G46" t="n">
-        <v>1.4335</v>
+        <v>0.01035</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1605,24 +1605,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="D47" t="n">
-        <v>65024</v>
+        <v>995095</v>
       </c>
       <c r="E47" t="n">
-        <v>0.137</v>
+        <v>8.317</v>
       </c>
       <c r="F47" t="n">
-        <v>2.152</v>
+        <v>410.6</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1076</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1630,24 +1630,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D48" t="n">
-        <v>16128</v>
+        <v>248267</v>
       </c>
       <c r="E48" t="n">
-        <v>0.029</v>
+        <v>2.201</v>
       </c>
       <c r="F48" t="n">
-        <v>0.291</v>
+        <v>34.894</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01455</v>
+        <v>1.7447</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1655,19 +1655,69 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>256</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61815</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.206</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>16</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>128</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15331</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02995</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>16</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>64</v>
       </c>
-      <c r="D49" t="n">
-        <v>3968</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.0028</v>
+      <c r="D51" t="n">
+        <v>3771</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.005099999999999999</v>
       </c>
     </row>
   </sheetData>
